--- a/Thesis - 2/Nodig/SystemTable.xlsx
+++ b/Thesis - 2/Nodig/SystemTable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Persistentie</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Query soort</t>
   </si>
   <si>
+    <t>Range</t>
+  </si>
+  <si>
     <t>Cassandra</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
     <t>Master-Master</t>
   </si>
   <si>
-    <t>MasterSlave</t>
-  </si>
-  <si>
     <t>Nee</t>
   </si>
   <si>
@@ -132,7 +132,13 @@
     <t>Uitleggen van aanpassen</t>
   </si>
   <si>
-    <t>Scan</t>
+    <t>Mogelijk</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Snapshots</t>
   </si>
 </sst>
 </file>
@@ -521,19 +527,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -565,7 +571,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +581,7 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -604,51 +611,51 @@
         <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>34</v>
@@ -656,31 +663,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -691,45 +698,51 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -743,14 +756,20 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -758,78 +777,111 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Thesis - 2/Nodig/SystemTable.xlsx
+++ b/Thesis - 2/Nodig/SystemTable.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>Persistentie</t>
   </si>
@@ -139,6 +141,162 @@
   </si>
   <si>
     <t>Snapshots</t>
+  </si>
+  <si>
+    <t>consistencyTest</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>addSeparateWorkload</t>
+  </si>
+  <si>
+    <t>belasting</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>Milliseconden</t>
+  </si>
+  <si>
+    <t>readThreads</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>stopOnFirstConsistency</t>
+  </si>
+  <si>
+    <t>Microseconden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			\textbf{Naam}</t>
+  </si>
+  <si>
+    <t>\textbf{eenheid}</t>
+  </si>
+  <si>
+    <t>\textbf{Omschrijving}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			\hline consistencyTest</t>
+  </si>
+  <si>
+    <t>Het activeren van de consistentie test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			addSeparateWorkload</t>
+  </si>
+  <si>
+    <t>Het toevoegen van een een extra belasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			starttime</t>
+  </si>
+  <si>
+    <t>Het moment dat de consistentie testen beginnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			readThreads</t>
+  </si>
+  <si>
+    <t>Het aantal lees gebruikers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			consistencyDelayMillis</t>
+  </si>
+  <si>
+    <t>Het interval waarin een lees gebruiker opnieuw het record leest</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">			newrequestperiodMillis</t>
+  </si>
+  <si>
+    <t>Het interval waarin een schrijf gebruiker opnieuw een record schrijft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			readProportionConsistencyCheck</t>
+  </si>
+  <si>
+    <t>Float ($0\leq x \leq 1)$</t>
+  </si>
+  <si>
+    <t>Het percentage van schrijfacties schrijven is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			updateProportionConsistencyCheck</t>
+  </si>
+  <si>
+    <t>Het percentage van schrijfacties updaten is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			stopOnFirstConsistency</t>
+  </si>
+  <si>
+    <t>Stoppen zodra de eerste keer een correct record is gelezen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			maxDelayConsistencyBeforeDropInMicros</t>
+  </si>
+  <si>
+    <t>De maximale afwijking dat de eigenlijke start van de query mag hebben t.o.v. het geplande moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			timeoutConsistencyBeforeDropInMicro</t>
+  </si>
+  <si>
+    <t>De maximale tijd dat een leesactie opnieuw geprobeerd wordt</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Eenheid</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>Float ($0\leq x \leq 1)</t>
+  </si>
+  <si>
+    <t>consistencyDelay</t>
+  </si>
+  <si>
+    <t>newrequestperiod</t>
+  </si>
+  <si>
+    <t>readProportion-</t>
+  </si>
+  <si>
+    <t>\hspace*{0.5cm}ConsistencyCheck</t>
+  </si>
+  <si>
+    <t>updateProportion-</t>
+  </si>
+  <si>
+    <t>\hspace*{0.5cm}BeforeDrop</t>
+  </si>
+  <si>
+    <t>maxDelayConsistency-</t>
+  </si>
+  <si>
+    <t>timeoutConsistency</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>$\mu s$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het toevoegen van een een extra </t>
   </si>
 </sst>
 </file>
@@ -203,11 +361,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -215,15 +370,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -237,6 +383,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,13 +731,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
@@ -585,323 +746,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -909,11 +1064,386 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
